--- a/Dataset/FeatureTable.xlsx
+++ b/Dataset/FeatureTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCL\Week8\BENG0095CW1\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcabzsu_ucl_ac_uk/Documents/Year 3/BENG0095/BENG0095 (202324) Group Coursework Brief-20231124/code/BENG0019-group-E/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AC72A2-8EFA-42D3-803C-2441BD39D8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D4AC72A2-8EFA-42D3-803C-2441BD39D8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC947C45-D22E-6F47-813C-35529C6E89CE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9A6A9E8-FDBE-47B5-9143-A5C25C2220C8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{A9A6A9E8-FDBE-47B5-9143-A5C25C2220C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>medical_specialty</t>
   </si>
   <si>
-    <t>Integer identifier of a specialty of the admitting physician, corresponding to 84 distinct values, for example, cardiology, internal medicine, family/general practice, and surgeon</t>
-  </si>
-  <si>
     <t>num_lab_procedures</t>
   </si>
   <si>
@@ -321,6 +318,10 @@
   </si>
   <si>
     <t>Indicates the range of the result or if the test was not taken. Values: &gt;8 if the result was greater than 8%, &gt;7 if the result was greater than 7% but less than 8%, normal if the result was less than 7%, and none if not measured.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer identifier of a specialty of the admitting physician, corresponding to 84 distinct values, for example, cardiology, internal medicine, family/general practice, and surgeon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,21 +696,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4E6DF5-5381-4133-8C05-A1A0FC4EF528}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="159" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="44.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -743,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -757,7 +758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="32">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -777,7 +778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -797,7 +798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -817,7 +818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -834,7 +835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="48">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -851,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="32">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -868,7 +869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="48">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -885,7 +886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="32">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -902,7 +903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="32">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -913,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="64">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -930,15 +931,15 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -947,15 +948,15 @@
         <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32">
+      <c r="A15" t="s">
         <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -964,15 +965,15 @@
         <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="32">
+      <c r="A16" t="s">
         <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -981,15 +982,15 @@
         <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32">
+      <c r="A17" t="s">
         <v>43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -998,15 +999,15 @@
         <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="32">
+      <c r="A18" t="s">
         <v>45</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1015,15 +1016,15 @@
         <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="32">
+      <c r="A19" t="s">
         <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1032,16 +1033,16 @@
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="32">
+      <c r="A20" t="s">
         <v>49</v>
       </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
@@ -1049,32 +1050,32 @@
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="32">
       <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="32">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -1083,15 +1084,15 @@
         <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -1100,50 +1101,50 @@
         <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="48">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="64">
+      <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="80">
+      <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
@@ -1151,429 +1152,429 @@
         <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="80">
       <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="80">
+      <c r="A28" t="s">
         <v>60</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="80">
+      <c r="A29" t="s">
         <v>61</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="80">
+      <c r="A30" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="80">
+      <c r="A31" t="s">
         <v>63</v>
       </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="80">
+      <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="80">
+      <c r="A33" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="80">
+      <c r="A34" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="80">
+      <c r="A35" t="s">
         <v>67</v>
       </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="80">
+      <c r="A36" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="80">
+      <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="80">
+      <c r="A38" t="s">
         <v>70</v>
       </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="80">
+      <c r="A39" t="s">
         <v>71</v>
       </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="80">
+      <c r="A40" t="s">
         <v>72</v>
       </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="80">
+      <c r="A41" t="s">
         <v>73</v>
       </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="80">
+      <c r="A42" t="s">
         <v>74</v>
       </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="80">
+      <c r="A43" t="s">
         <v>75</v>
       </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="80">
+      <c r="A44" t="s">
         <v>76</v>
       </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="80">
+      <c r="A45" t="s">
         <v>77</v>
       </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="80">
+      <c r="A46" t="s">
         <v>78</v>
       </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="80">
+      <c r="A47" t="s">
         <v>79</v>
       </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="80">
+      <c r="A48" t="s">
         <v>80</v>
       </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="48">
+      <c r="A49" t="s">
         <v>81</v>
       </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="32">
+      <c r="A50" t="s">
         <v>83</v>
       </c>
-      <c r="F49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="64">
+      <c r="A51" t="s">
         <v>85</v>
       </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>86</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>

--- a/Dataset/FeatureTable.xlsx
+++ b/Dataset/FeatureTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCL\Week8\BENG0095CW1\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcabzsu_ucl_ac_uk/Documents/Year 3/BENG0095/BENG0095 (202324) Group Coursework Brief-20231124/code/BENG0019-group-E/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AC72A2-8EFA-42D3-803C-2441BD39D8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D4AC72A2-8EFA-42D3-803C-2441BD39D8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7E4E849-8FA9-0F4B-AD51-71D640541C2A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9A6A9E8-FDBE-47B5-9143-A5C25C2220C8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{A9A6A9E8-FDBE-47B5-9143-A5C25C2220C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>patient_nbr</t>
-  </si>
-  <si>
     <t>Unique identifier of a patient</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
   </si>
   <si>
     <t>Number of diagnoses entered to the system</t>
-  </si>
-  <si>
-    <t>max_glu_serum</t>
   </si>
   <si>
     <t>A1Cresult</t>
@@ -321,6 +315,14 @@
   </si>
   <si>
     <t>Indicates the range of the result or if the test was not taken. Values: &gt;8 if the result was greater than 8%, &gt;7 if the result was greater than 7% but less than 8%, normal if the result was less than 7%, and none if not measured.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient_nbr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_glu_serum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,7 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,21 +697,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4E6DF5-5381-4133-8C05-A1A0FC4EF528}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="159" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="177" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="44.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -743,837 +745,837 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="32">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="16">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="48">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="48">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="32">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="64">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="32">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="32">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="32">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="32">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="32">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="32">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="48">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="64">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="80">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="80">
+      <c r="A27" t="s">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="80">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="80">
+      <c r="A29" t="s">
         <v>60</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="80">
+      <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="80">
+      <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="80">
+      <c r="A32" t="s">
         <v>63</v>
       </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="80">
+      <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="80">
+      <c r="A34" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="80">
+      <c r="A35" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="80">
+      <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="80">
+      <c r="A37" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="80">
+      <c r="A38" t="s">
         <v>69</v>
       </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="80">
+      <c r="A39" t="s">
         <v>70</v>
       </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="80">
+      <c r="A40" t="s">
         <v>71</v>
       </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="80">
+      <c r="A41" t="s">
         <v>72</v>
       </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="80">
+      <c r="A42" t="s">
         <v>73</v>
       </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="80">
+      <c r="A43" t="s">
         <v>74</v>
       </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="80">
+      <c r="A44" t="s">
         <v>75</v>
       </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="80">
+      <c r="A45" t="s">
         <v>76</v>
       </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="80">
+      <c r="A46" t="s">
         <v>77</v>
       </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="80">
+      <c r="A47" t="s">
         <v>78</v>
       </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="80">
+      <c r="A48" t="s">
         <v>79</v>
       </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="48">
+      <c r="A49" t="s">
         <v>80</v>
       </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="32">
+      <c r="A50" t="s">
         <v>82</v>
       </c>
-      <c r="B49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="64">
+      <c r="A51" t="s">
         <v>84</v>
       </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="B51" t="s">
         <v>85</v>
       </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
